--- a/medicine/Sexualité et sexologie/Douleurs_ovulatoires/Douleurs_ovulatoires.xlsx
+++ b/medicine/Sexualité et sexologie/Douleurs_ovulatoires/Douleurs_ovulatoires.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les douleurs ovulatoires, aussi appelées Mittelschmerz (de l'allemand, ce qui signifie douleurs du milieu), sont des douleurs abdominales basses pré-ovulatoires bénignes. Elles sont ressenties en milieu de cycle menstruel , soit environ 14 jours avant le début des règles. Ces douleurs touchent plus de 40 % des femmes. Elles durent en moyenne quelques heures mais peuvent atteindre les 48 heures dans certains cas.
 Cette douleur est due à la libération de l'ovule, certaines femmes arrivent même à savoir lequel de leurs deux ovaires relâche l'ovule.
@@ -512,10 +524,12 @@
           <t>Symptômes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La douleur est généralement modérée mais peut, chez certaines femmes, être ressentie de façon plus intense. Elle peut s'apparenter à des douleurs menstruelles ou encore à une crise d'appendicite ce qui peut conduire à des erreurs de diagnostique de la part des professionnels de santé[1].
-Ces douleurs ovulatoires peuvent se manifester sous plusieurs symptômes[2] : 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La douleur est généralement modérée mais peut, chez certaines femmes, être ressentie de façon plus intense. Elle peut s'apparenter à des douleurs menstruelles ou encore à une crise d'appendicite ce qui peut conduire à des erreurs de diagnostique de la part des professionnels de santé.
+Ces douleurs ovulatoires peuvent se manifester sous plusieurs symptômes : 
 - Crampes au niveau du bas ventre
 - Légers saignements vaginaux
 - Pertes vaginales 
